--- a/data/trans_orig/P16B99-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B4553B-7739-43F3-8798-FA9A17FB83E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{776E44D3-434F-4E93-856A-19AFDFBA6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DAA4B11-FC15-4443-B22B-39FEE2A95841}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E3ADF1B-39F7-418A-8A56-8CD6FE14542B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63A0330-D9C0-4E89-981B-23CFF724AF80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30186E-9061-4649-89A7-118A864697B0}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1030,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AA347C-EDEF-4BE8-AC9F-8BDE3828E040}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5092760-9697-4A08-9E9E-D43F5521EBFC}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE3C03A-E9DB-4D74-AAF2-D5BB20D23910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C18DF-C892-4FE8-8C87-CBC4652A308C}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B99-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776E44D3-434F-4E93-856A-19AFDFBA6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C33BDC31-D99F-4F23-8546-F431E9935279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E3ADF1B-39F7-418A-8A56-8CD6FE14542B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52AF62E6-710E-41F2-A11B-036CF57A72CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +103,7 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30186E-9061-4649-89A7-118A864697B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC7D6FD-FCB5-42C7-B24F-00E5FB0C119C}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1030,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5092760-9697-4A08-9E9E-D43F5521EBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4607B300-8896-4BDB-B794-4711441E868A}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C18DF-C892-4FE8-8C87-CBC4652A308C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034D9EA7-EB60-4D43-9595-5E92E7E601A2}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
